--- a/Tests/Mutation_percentage_test-dataset1.xlsx
+++ b/Tests/Mutation_percentage_test-dataset1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prace domowe\Studia IV rok\AGH\Inżynierka\Project\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CD18C8-DE2C-47E3-89AF-022419CBF18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA14A19-E5A1-4D86-BD29-D8741646BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2055" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +446,7 @@
     <col min="5" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -469,7 +469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0.9</v>
       </c>
@@ -491,8 +491,11 @@
       <c r="G2">
         <v>0.926469326019287</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.8</v>
       </c>
@@ -514,8 +517,11 @@
       <c r="G3">
         <v>0.92780613899230902</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>0.7</v>
       </c>
@@ -538,7 +544,7 @@
         <v>0.82111310958862305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.6</v>
       </c>
@@ -561,7 +567,7 @@
         <v>0.82475733757018999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>0.5</v>
       </c>
@@ -584,7 +590,7 @@
         <v>0.761211156845092</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.3</v>
       </c>
@@ -607,7 +613,7 @@
         <v>0.72777867317199696</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>0.2</v>
       </c>
@@ -630,7 +636,7 @@
         <v>0.68534302711486805</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>0.1</v>
       </c>
@@ -653,18 +659,8 @@
         <v>0.71606254577636697</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Tests/Mutation_percentage_test-dataset1.xlsx
+++ b/Tests/Mutation_percentage_test-dataset1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Prace domowe\Studia IV rok\AGH\Inżynierka\Project\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA14A19-E5A1-4D86-BD29-D8741646BC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDE6001-B487-47DF-AD71-E44F2A3B6EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Maximum value</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Mutation percentage</t>
+  </si>
+  <si>
+    <t>Other parameter values:</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -116,11 +119,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -129,6 +145,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -435,15 +457,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="4" width="17" customWidth="1"/>
     <col min="5" max="7" width="27.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -468,6 +489,9 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
@@ -614,7 +638,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>0.2</v>
       </c>
       <c r="B8">
@@ -660,7 +684,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
